--- a/GPT_MASB_Room101.xlsx
+++ b/GPT_MASB_Room101.xlsx
@@ -462,252 +462,252 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>24001-EE-001</t>
+          <t>22001-ME-001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24001-EE-002</t>
+          <t>22001-ME-002</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-002</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-002</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24001-EE-003</t>
+          <t>22001-ME-003</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-003</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>24001-EC-001</t>
+          <t>22001-EC-001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>24001-EC-002</t>
+          <t>22001-EC-002</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-002</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-002</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>24001-EC-003</t>
+          <t>22001-EC-003</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-003</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24001-EE-004</t>
+          <t>22001-ME-004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-004</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-004</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24001-EE-005</t>
+          <t>22001-ME-005</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-005</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-005</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>24001-EE-006</t>
+          <t>22001-ME-006</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-003</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24001-EC-004</t>
+          <t>22001-EC-004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-004</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-004</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>24001-EC-005</t>
+          <t>22001-EC-005</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-005</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-005</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>24001-EC-006</t>
+          <t>22001-EC-006</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-006</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24001-EE-007</t>
+          <t>22001-ME-007</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-007</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-007</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>24001-EE-008</t>
+          <t>22001-ME-008</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CS-008</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-CE-008</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-006</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>24001-EC-007</t>
+          <t>22001-EC-007</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-007</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-007</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>24001-EC-008</t>
+          <t>22001-EC-008</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-EE-008</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>22001-PH-008</t>
         </is>
       </c>
     </row>
